--- a/docs/Pesquisas/Pesquisa_consultas/dados_consultas.xlsx
+++ b/docs/Pesquisas/Pesquisa_consultas/dados_consultas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\livia\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAURA\Documents\GitHub\API-2023.1\docs\Pesquisas\Pesquisa_consultas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBE5EFA-E1DF-4012-91AF-86620EC4F69B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA787D3-6F8C-4BF8-A970-BBB7E1AC4079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="9855" yWindow="0" windowWidth="10605" windowHeight="8565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Consultas" sheetId="2" r:id="rId1"/>
@@ -4864,10 +4864,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5133,8 +5129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DCDF940-90C5-4749-88D6-607A64AA33BB}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
